--- a/src/main/java/com/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/testdata/FreeCrmTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A96BA275-8185-432B-8E1F-F913692FD242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC39107E-5820-41F5-AF6E-F1D64AFAB156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
-    <sheet name="Homepage" r:id="rId7" sheetId="4"/>
+    <sheet name="Homepage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>firstname</t>
   </si>
@@ -93,19 +93,12 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -158,12 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -453,10 +445,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="27.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.6875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.99609375" collapsed="true"/>
+    <col min="3" max="3" width="27.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
@@ -481,9 +472,6 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s" s="4">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -507,9 +495,6 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -533,9 +518,6 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
@@ -558,9 +540,6 @@
       </c>
       <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -598,13 +577,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>